--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD21AF-66A9-4F80-96B2-F063E32A6E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379B6C8-7D67-4DBC-8846-93DBC21BF51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -91,13 +102,25 @@
   </si>
   <si>
     <t>2022_11_04_23_13_57</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_09_13</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_14_17</t>
+  </si>
+  <si>
+    <t>2022_11_02_19_58_44-3-0.62829439429</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_26_44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +135,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +184,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,21 +472,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="10" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,8 +508,17 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +540,17 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,8 +572,17 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -535,9 +604,18 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -558,8 +636,17 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -581,8 +668,17 @@
       <c r="G6" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,8 +700,17 @@
       <c r="G7" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -627,8 +732,17 @@
       <c r="G8" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,65 +764,152 @@
       <c r="G9" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>0.62031840512000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>0.63589020368000004</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.63438827984000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.63079113464000003</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.63685043782999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.62772075951999995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.63410110356000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>0.64228001062999995</v>
       </c>
     </row>
   </sheetData>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379B6C8-7D67-4DBC-8846-93DBC21BF51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A9B4A-531B-4334-BF43-DBBE9ACA43AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>2022_11_05_09_26_44</t>
+  </si>
+  <si>
+    <t>2022_11_05_05_55_17-0-0.62600679310</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_13_02</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_18_53</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_26_27</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_26_38</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_26_49</t>
   </si>
 </sst>
 </file>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +208,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,21 +493,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="15" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -517,8 +541,23 @@
       <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +588,23 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,8 +635,23 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,8 +682,23 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -645,8 +729,23 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,8 +776,23 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,8 +823,23 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -741,8 +870,23 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -773,8 +917,23 @@
       <c r="J9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,110 +964,208 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.63589020368000004</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>0.63438827984000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="6">
         <v>0.63685043782999995</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>0.62772075951999995</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="1">
         <v>0.63410110356000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="K12" s="5">
+        <v>0.64302561999999996</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.63827990195999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
         <v>0.64228001062999995</v>
       </c>
     </row>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A9B4A-531B-4334-BF43-DBBE9ACA43AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D2ADA-31F9-4154-8A86-61FFC5731409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +156,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,10 +213,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +502,10 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1055,7 @@
       <c r="G12" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="1">
         <v>0.63685043782999995</v>
       </c>
       <c r="I12" s="1">
@@ -1061,8 +1067,11 @@
       <c r="K12" s="5">
         <v>0.64302561999999996</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>0.63827990195999995</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.63773401452</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D2ADA-31F9-4154-8A86-61FFC5731409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CB6E8-6930-42CF-95A3-472B0FC12FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -128,10 +128,78 @@
     <t>2022_11_05_22_26_27</t>
   </si>
   <si>
-    <t>2022_11_05_22_26_38</t>
-  </si>
-  <si>
-    <t>2022_11_05_22_26_49</t>
+    <t>2022_11_06_14_31_56</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-2-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_14_54_03</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_15_02_51</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_16_22_30</t>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_19_51_17</t>
   </si>
 </sst>
 </file>
@@ -213,10 +281,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,24 +567,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="18" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,10 +628,19 @@
         <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +686,17 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,8 +742,17 @@
       <c r="O3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,8 +798,17 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -750,8 +854,17 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,10 +908,19 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,13 +961,22 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -886,13 +1017,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,35 +1078,20 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
@@ -985,38 +1110,20 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
@@ -1032,149 +1139,401 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B27" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C27" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D27" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E27" s="1">
         <v>0.63589020368000004</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F27" s="1">
         <v>0.63438827984000001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G27" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H27" s="1">
         <v>0.63685043782999995</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I27" s="1">
         <v>0.62772075951999995</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J27" s="1">
         <v>0.63410110356000005</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K27" s="1">
         <v>0.64302561999999996</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L27" s="1">
         <v>0.63827990195999995</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M27" s="6">
         <v>0.63773401452</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="N27" s="5">
+        <v>0.63948215335000003</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.63535529643999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.63471431104999998</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.63587641847999998</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.63115529438999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="P28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+      <c r="P29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
         <v>0.64228001062999995</v>
       </c>
     </row>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CB6E8-6930-42CF-95A3-472B0FC12FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055C794-EB48-45BD-A4E7-261C57848D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -200,13 +200,54 @@
   </si>
   <si>
     <t>2022_11_06_19_51_17</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_24_06</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_27_46</t>
+  </si>
+  <si>
+    <t>expand_train.json</t>
+  </si>
+  <si>
+    <t>expand_train_cur_best.json 909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> expand_train_aug_tail.json fgm 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_632_aug_tail.json seed=42 fgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand_train_6422_aug_tail.json 42 fgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_21_38_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_21_48_07</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_49_39</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_51_02</t>
+  </si>
+  <si>
+    <t>2022_11_06_22_17_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +271,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,6 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,94 +618,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="24" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="2">
         <v>44869.038888888892</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44869.394444444442</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44869.402083333334</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -695,22 +770,46 @@
       <c r="R2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -751,22 +850,46 @@
       <c r="R3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -778,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -807,14 +930,35 @@
       <c r="R4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -822,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -831,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -863,32 +1007,56 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.25</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
@@ -919,16 +1087,38 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -940,11 +1130,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.25</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
@@ -975,16 +1165,37 @@
       <c r="R7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -996,11 +1207,11 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.25</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -1014,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -1031,16 +1242,37 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1052,11 +1284,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.25</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
@@ -1067,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1087,16 +1319,37 @@
       <c r="R9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1119,16 +1372,37 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1148,16 +1422,40 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -1168,16 +1466,37 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -1188,16 +1507,37 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -1208,16 +1548,37 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -1225,16 +1586,22 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
       <c r="P16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -1242,16 +1609,22 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -1259,169 +1632,247 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
       <c r="Q18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
       <c r="Q19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
       <c r="Q20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
       <c r="R21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
       <c r="R22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="1">
-        <v>1</v>
-      </c>
       <c r="R23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.63589020368000004</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.63438827984000001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0.63685043782999995</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>0.62772075951999995</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>0.63410110356000005</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>0.64302561999999996</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>0.63827990195999995</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>0.63773401452</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>0.63948215335000003</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>0.63535529643999999</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>0.63471431104999998</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>0.63587641847999998</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>0.63115529438999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27" s="1">
+        <v>0.62575922775000004</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.62569602715999995</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.63252946054000003</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.63926327466999999</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.64278615940999995</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.63796723414000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +1880,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1447,13 +1898,13 @@
         <v>13</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>13</v>
@@ -1470,14 +1921,35 @@
       <c r="R28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,11 +1960,11 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,14 +1998,38 @@
       <c r="R29" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
+      <c r="S29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
         <v>0.64228001062999995</v>
       </c>
     </row>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A055C794-EB48-45BD-A4E7-261C57848D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4805FF3-0F37-4809-81B2-BEA33D9A1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -241,6 +241,48 @@
   </si>
   <si>
     <t>2022_11_06_22_17_07</t>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_07_32_56</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_07_35_50</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_07_37_14</t>
   </si>
 </sst>
 </file>
@@ -315,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,13 +371,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -618,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -634,11 +679,11 @@
     <col min="3" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="24" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="26" max="29" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,8 +759,17 @@
       <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,8 +848,17 @@
       <c r="Z2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,12 +937,21 @@
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="1">
@@ -954,8 +1026,17 @@
       <c r="Z4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1031,8 +1112,17 @@
       <c r="Z5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1111,12 +1201,21 @@
       <c r="Z6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -1189,8 +1288,17 @@
       <c r="Z7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,8 +1374,17 @@
       <c r="Z8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1343,8 +1460,17 @@
       <c r="Z9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1396,8 +1522,17 @@
       <c r="Z10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1446,8 +1581,17 @@
       <c r="Z11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1490,8 +1634,17 @@
       <c r="Z12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1531,8 +1684,17 @@
       <c r="Z13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1572,8 +1734,17 @@
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1596,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1619,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1642,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1753,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1781,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -1795,241 +1966,361 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C36" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D36" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E36" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F36" s="1">
         <v>0.63589020368000004</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G36" s="1">
         <v>0.63438827984000001</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H36" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I36" s="1">
         <v>0.63685043782999995</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J36" s="1">
         <v>0.62772075951999995</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K36" s="1">
         <v>0.63410110356000005</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L36" s="1">
         <v>0.64302561999999996</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M36" s="1">
         <v>0.63827990195999995</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N36" s="5">
         <v>0.63773401452</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O36" s="8">
         <v>0.63948215335000003</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P36" s="1">
         <v>0.63535529643999999</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q36" s="1">
         <v>0.63471431104999998</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R36" s="1">
         <v>0.63587641847999998</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S36" s="1">
         <v>0.63115529438999995</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T36" s="1">
         <v>0.62575922775000004</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U36" s="1">
         <v>0.62569602715999995</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V36" s="1">
         <v>0.63252946054000003</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W36" s="1">
         <v>0.63926327466999999</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X36" s="1">
         <v>0.64278615940999995</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y36" s="1">
         <v>0.63796723414000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="Z36" s="7">
+        <v>0.63968172040000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="AA37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F31" s="3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
         <v>0.64228001062999995</v>
       </c>
     </row>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4805FF3-0F37-4809-81B2-BEA33D9A1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF02755-2139-4F11-834A-05FD21C2410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
@@ -283,6 +283,20 @@
   </si>
   <si>
     <t>2022_11_07_07_37_14</t>
+  </si>
+  <si>
+    <t>2022_11_07_09_31_45</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_07_09_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_06_19_09_34_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_09_33_31</t>
   </si>
 </sst>
 </file>
@@ -357,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
+      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,11 +690,11 @@
     <col min="3" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="24" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
-    <col min="26" max="29" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="26" max="31" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,8 +779,14 @@
       <c r="AC1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,8 +874,14 @@
       <c r="AC2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -946,8 +969,14 @@
       <c r="AC3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1035,8 +1064,14 @@
       <c r="AC4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1121,8 +1156,14 @@
       <c r="AC5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1210,8 +1251,14 @@
       <c r="AC6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1297,8 +1344,14 @@
       <c r="AC7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,8 +1436,14 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1469,8 +1528,14 @@
       <c r="AC9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1531,8 +1596,14 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1590,8 +1661,14 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1643,8 +1720,14 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1693,8 +1776,14 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1743,8 +1832,14 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1767,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -2049,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -2057,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -2065,262 +2160,308 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C38" s="1">
         <v>0.63415516318999998</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D38" s="1">
         <v>0.63234589688999998</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E38" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F38" s="1">
         <v>0.63589020368000004</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G38" s="1">
         <v>0.63438827984000001</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H38" s="1">
         <v>0.63079113464000003</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I38" s="1">
         <v>0.63685043782999995</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J38" s="1">
         <v>0.62772075951999995</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K38" s="1">
         <v>0.63410110356000005</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L38" s="1">
         <v>0.64302561999999996</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M38" s="1">
         <v>0.63827990195999995</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N38" s="5">
         <v>0.63773401452</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O38" s="5">
         <v>0.63948215335000003</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P38" s="1">
         <v>0.63535529643999999</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q38" s="1">
         <v>0.63471431104999998</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R38" s="1">
         <v>0.63587641847999998</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S38" s="1">
         <v>0.63115529438999995</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T38" s="1">
         <v>0.62575922775000004</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U38" s="1">
         <v>0.62569602715999995</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V38" s="1">
         <v>0.63252946054000003</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W38" s="1">
         <v>0.63926327466999999</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X38" s="1">
         <v>0.64278615940999995</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y38" s="1">
         <v>0.63796723414000001</v>
       </c>
-      <c r="Z36" s="7">
+      <c r="Z38" s="7">
         <v>0.63968172040000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="AA38" s="1">
+        <v>0.63131218140000001</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.63471294510999998</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0.63662306216999998</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.63542359207999999</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.63905269472000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AB39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="AD39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F39" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F40" s="3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
         <v>0.64228001062999995</v>
       </c>
     </row>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -1,63 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF02755-2139-4F11-834A-05FD21C2410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A220DF-DE12-4D3D-917D-8AA36B740216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>2022_11_04_23_10_35</t>
+  </si>
+  <si>
+    <t>2022_11_04_23_12_50</t>
+  </si>
+  <si>
+    <t>2022_11_04_23_13_57</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_09_13</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_14_17</t>
+  </si>
+  <si>
+    <t>2022_11_05_09_26_44</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_13_02</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_18_53</t>
+  </si>
+  <si>
+    <t>2022_11_05_22_26_27</t>
+  </si>
+  <si>
+    <t>2022_11_06_14_31_56</t>
+  </si>
+  <si>
+    <t>2022_11_06_14_54_03</t>
+  </si>
+  <si>
+    <t>2022_11_06_15_02_51</t>
+  </si>
+  <si>
+    <t>2022_11_06_16_22_30</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_51_17</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_24_06</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_27_46</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_38_35</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_48_07</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_49_39</t>
+  </si>
+  <si>
+    <t>2022_11_06_21_51_02</t>
+  </si>
+  <si>
+    <t>2022_11_06_22_17_07</t>
+  </si>
+  <si>
+    <t>2022_11_07_07_32_56</t>
+  </si>
+  <si>
+    <t>2022_11_07_07_35_50</t>
+  </si>
+  <si>
+    <t>2022_11_07_07_37_14</t>
+  </si>
+  <si>
+    <t>2022_11_07_09_31_45</t>
+  </si>
+  <si>
+    <t>2022_11_07_09_33_31</t>
+  </si>
   <si>
     <t>2022_11_01_04_26_32-3-0.63293263685</t>
   </si>
   <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> expand_train_aug_tail.json fgm 42</t>
+  </si>
+  <si>
+    <t>2022_10_27_07_38_29_3-0.63077875449</t>
+  </si>
+  <si>
+    <t>expand_train_cur_best.json 909</t>
   </si>
   <si>
     <t>2022_10_22_19_12_04-3-0.62876738448</t>
   </si>
   <si>
-    <t>2022_10_27_07_38_29_3-0.63077875449</t>
+    <t>expand_train.json</t>
   </si>
   <si>
     <t>2022_10_25_05_36_40_1-0.62529548458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2022_11_03_19_41_25-1-0.61577661518</t>
   </si>
   <si>
+    <t>train_632_aug_tail.json seed=42 fgm</t>
+  </si>
+  <si>
     <t>2022_11_03_19_41_25-2-</t>
   </si>
   <si>
@@ -67,236 +139,118 @@
     <t>2022_11_03_19_41_25-4-</t>
   </si>
   <si>
+    <t>2022_11_02_19_58_44-3-0.62829439429</t>
+  </si>
+  <si>
+    <t>2022_11_05_05_55_17-0-0.62600679310</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-1-</t>
+  </si>
+  <si>
+    <t>expand_train_6422_aug_tail.json 42 fgm</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-2-</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_35_15-3-</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_34_51_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_38_28_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_04_37_58_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_09_05_33_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_18_41_14_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_06_54_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_1</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_2</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_08_24_3</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_07_09_0</t>
+  </si>
+  <si>
+    <t>2022_11_06_19_09_34_0</t>
+  </si>
+  <si>
     <t>集成结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_04_23_10_35</t>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_04_23_12_50</t>
   </si>
   <si>
     <t>投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_04_23_13_57</t>
-  </si>
-  <si>
-    <t>2022_11_05_09_09_13</t>
-  </si>
-  <si>
-    <t>2022_11_05_09_14_17</t>
-  </si>
-  <si>
-    <t>2022_11_02_19_58_44-3-0.62829439429</t>
-  </si>
-  <si>
-    <t>2022_11_05_09_26_44</t>
-  </si>
-  <si>
-    <t>2022_11_05_05_55_17-0-0.62600679310</t>
-  </si>
-  <si>
-    <t>2022_11_05_22_13_02</t>
-  </si>
-  <si>
-    <t>2022_11_05_22_18_53</t>
-  </si>
-  <si>
-    <t>2022_11_05_22_26_27</t>
-  </si>
-  <si>
-    <t>2022_11_06_14_31_56</t>
-  </si>
-  <si>
-    <t>2022_11_06_04_35_15-1-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_35_15-2-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_35_15-3-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_34_51_1</t>
-  </si>
-  <si>
-    <t>2022_11_06_04_34_51_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_34_51_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_14_54_03</t>
-  </si>
-  <si>
-    <t>2022_11_06_04_38_28_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_38_28_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_38_28_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_15_02_51</t>
-  </si>
-  <si>
-    <t>2022_11_06_04_37_58_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_37_58_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_04_37_58_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_16_22_30</t>
-  </si>
-  <si>
-    <t>2022_11_06_09_05_33_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_09_05_33_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_09_05_33_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_19_51_17</t>
-  </si>
-  <si>
-    <t>2022_11_06_21_24_06</t>
-  </si>
-  <si>
-    <t>2022_11_06_21_27_46</t>
-  </si>
-  <si>
-    <t>expand_train.json</t>
-  </si>
-  <si>
-    <t>expand_train_cur_best.json 909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> expand_train_aug_tail.json fgm 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>train_632_aug_tail.json seed=42 fgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expand_train_6422_aug_tail.json 42 fgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_21_38_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_21_48_07</t>
-  </si>
-  <si>
-    <t>2022_11_06_21_49_39</t>
-  </si>
-  <si>
-    <t>2022_11_06_21_51_02</t>
-  </si>
-  <si>
-    <t>2022_11_06_22_17_07</t>
-  </si>
-  <si>
-    <t>2022_11_06_18_41_14_1</t>
-  </si>
-  <si>
-    <t>2022_11_06_18_41_14_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_18_41_14_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_07_07_32_56</t>
-  </si>
-  <si>
-    <t>2022_11_06_19_06_54_1</t>
-  </si>
-  <si>
-    <t>2022_11_06_19_06_54_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_19_06_54_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_07_07_35_50</t>
-  </si>
-  <si>
-    <t>2022_11_06_19_08_24_1</t>
-  </si>
-  <si>
-    <t>2022_11_06_19_08_24_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_19_08_24_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_07_07_37_14</t>
-  </si>
-  <si>
-    <t>2022_11_07_09_31_45</t>
-  </si>
-  <si>
-    <t>2022_11_06_19_07_09_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_06_19_09_34_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022_11_07_09_33_31</t>
+  </si>
+  <si>
+    <t>2022_11_07_15_56_49</t>
+  </si>
+  <si>
+    <t>2022_11_07_15_42_58</t>
   </si>
 </sst>
 </file>
@@ -308,13 +262,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -322,20 +275,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,7 +332,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,7 +341,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -454,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -489,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -664,511 +617,535 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE42"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="24" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="24" width="20.33203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
-    <col min="26" max="31" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="1"/>
+    <col min="26" max="33" width="20.33203125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>44869.038888888892</v>
+        <v>44869.038888888899</v>
       </c>
       <c r="D1" s="2">
-        <v>44869.394444444442</v>
+        <v>44869.394444444399</v>
       </c>
       <c r="E1" s="2">
-        <v>44869.402083333334</v>
+        <v>44869.402083333298</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1257,12 +1234,18 @@
       <c r="AE6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -1314,7 +1297,7 @@
       <c r="S7" s="1">
         <v>1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="6">
         <v>0</v>
       </c>
       <c r="U7" s="1">
@@ -1350,10 +1333,16 @@
       <c r="AE7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -1442,10 +1431,16 @@
       <c r="AE8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1501,7 +1496,7 @@
       <c r="T9" s="1">
         <v>1</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="6">
         <v>0</v>
       </c>
       <c r="V9" s="1">
@@ -1534,10 +1529,16 @@
       <c r="AE9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1602,10 +1603,16 @@
       <c r="AE10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1667,13 +1674,19 @@
       <c r="AE11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -1726,10 +1739,16 @@
       <c r="AE12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -1782,10 +1801,16 @@
       <c r="AE13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -1838,10 +1863,16 @@
       <c r="AE14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -1862,9 +1893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -1887,7 +1918,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -1910,7 +1941,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -1930,7 +1961,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -1950,7 +1981,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
@@ -1970,7 +2001,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -1987,7 +2018,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R22" s="1">
         <v>1</v>
@@ -2004,7 +2035,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
@@ -2021,7 +2052,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="S24" s="1">
         <v>1</v>
@@ -2035,7 +2066,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="S25" s="1">
         <v>1</v>
@@ -2049,7 +2080,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="S26" s="1">
         <v>1</v>
@@ -2063,7 +2094,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA27" s="1">
         <v>1</v>
@@ -2077,7 +2108,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA28" s="1">
         <v>1</v>
@@ -2091,7 +2122,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA29" s="1">
         <v>1</v>
@@ -2105,7 +2136,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB30" s="1">
         <v>1</v>
@@ -2116,7 +2147,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB31" s="1">
         <v>1</v>
@@ -2127,61 +2158,88 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C38" s="1">
         <v>0.63415516318999998</v>
@@ -2216,10 +2274,10 @@
       <c r="M38" s="1">
         <v>0.63827990195999995</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="3">
         <v>0.63773401452</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>0.63948215335000003</v>
       </c>
       <c r="P38" s="1">
@@ -2252,7 +2310,7 @@
       <c r="Y38" s="1">
         <v>0.63796723414000001</v>
       </c>
-      <c r="Z38" s="7">
+      <c r="Z38" s="1">
         <v>0.63968172040000004</v>
       </c>
       <c r="AA38" s="1">
@@ -2270,204 +2328,222 @@
       <c r="AE38" s="1">
         <v>0.63905269472000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF38" s="1">
+        <v>0.63205990027000003</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0.64010857300000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F42" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F42" s="6">
         <v>0.64228001062999995</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A220DF-DE12-4D3D-917D-8AA36B740216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04D1F3-D6FB-4D01-AD53-6DD5426C9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>模型</t>
   </si>
@@ -251,13 +251,30 @@
   </si>
   <si>
     <t>2022_11_07_15_42_58</t>
+  </si>
+  <si>
+    <t>2022_11_07_21_03_51</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_21_30_31</t>
+  </si>
+  <si>
+    <t>2022_11_07_21_34_24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +305,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +370,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -638,10 +669,11 @@
     <col min="6" max="24" width="20.33203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
     <col min="26" max="33" width="20.33203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="34" max="36" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +770,17 @@
       <c r="AG1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -839,8 +880,17 @@
       <c r="AG2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -940,8 +990,17 @@
       <c r="AG3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1041,8 +1100,17 @@
       <c r="AG4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1139,8 +1207,17 @@
       <c r="AG5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1240,8 +1317,17 @@
       <c r="AG6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1339,8 +1425,17 @@
       <c r="AG7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1437,8 +1532,17 @@
       <c r="AG8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1535,9 +1639,18 @@
       <c r="AG9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="1">
@@ -1609,8 +1722,17 @@
       <c r="AG10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1680,8 +1802,17 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,8 +1876,17 @@
       <c r="AG12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1807,8 +1947,17 @@
       <c r="AG13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1869,8 +2018,17 @@
       <c r="AG14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1893,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2167,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -2178,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -2191,8 +2349,17 @@
       <c r="AG34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2205,8 +2372,17 @@
       <c r="AG35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2222,8 +2398,17 @@
       <c r="AG36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -2236,8 +2421,17 @@
       <c r="AG37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2331,11 +2525,20 @@
       <c r="AF38" s="1">
         <v>0.63205990027000003</v>
       </c>
-      <c r="AG38" s="7">
+      <c r="AG38" s="1">
         <v>0.64010857300000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH38" s="7">
+        <v>0.64526702946000003</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0.64052132328</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0.63821331352999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,8 +2635,17 @@
       <c r="AG39" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2530,13 +2742,22 @@
       <c r="AG40" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F42" s="6">
         <v>0.64228001062999995</v>
       </c>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04D1F3-D6FB-4D01-AD53-6DD5426C9676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346CB5F-1C56-40F3-AC46-1AB8FE72B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>模型</t>
   </si>
@@ -268,6 +268,25 @@
   </si>
   <si>
     <t>2022_11_07_21_34_24</t>
+  </si>
+  <si>
+    <t>expand_train_6422_aug_tail.json</t>
+  </si>
+  <si>
+    <t>expand_train_6460_aug_tail.json</t>
+  </si>
+  <si>
+    <t>2022_11_07_21_46_40</t>
+  </si>
+  <si>
+    <t>2022_11_07_21_53_45</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_11_07_22_00_50</t>
   </si>
 </sst>
 </file>
@@ -349,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,9 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,13 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC20" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -670,10 +686,11 @@
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
     <col min="26" max="33" width="20.33203125" style="1" customWidth="1"/>
     <col min="34" max="36" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="1"/>
+    <col min="37" max="39" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +796,17 @@
       <c r="AJ1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,8 +915,17 @@
       <c r="AJ2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -999,8 +1034,17 @@
       <c r="AJ3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1109,8 +1153,17 @@
       <c r="AJ4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1216,8 +1269,17 @@
       <c r="AJ5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1326,8 +1388,17 @@
       <c r="AJ6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1434,8 +1505,17 @@
       <c r="AJ7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1541,8 +1621,17 @@
       <c r="AJ8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1648,9 +1737,18 @@
       <c r="AJ9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="1">
@@ -1731,11 +1829,23 @@
       <c r="AJ10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
@@ -1811,8 +1921,17 @@
       <c r="AJ11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1885,8 +2004,17 @@
       <c r="AJ12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1956,8 +2084,17 @@
       <c r="AJ13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2027,8 +2164,17 @@
       <c r="AJ14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -2051,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2097,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -2137,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -2174,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2208,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2222,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2249,8 +2395,11 @@
       <c r="U26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AM26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -2264,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -2278,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -2292,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -2303,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -2314,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2325,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -2336,10 +2485,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AC34" s="1">
         <v>1</v>
       </c>
@@ -2358,8 +2510,17 @@
       <c r="AJ34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2381,8 +2542,17 @@
       <c r="AJ35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2407,8 +2577,17 @@
       <c r="AJ36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -2430,8 +2609,17 @@
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2537,8 +2725,17 @@
       <c r="AJ38" s="1">
         <v>0.63821331352999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK38" s="1">
+        <v>0.63884797224000001</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0.63370408064999995</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0.64211147743999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -2644,8 +2841,17 @@
       <c r="AJ39" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM39" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2751,13 +2957,22 @@
       <c r="AJ40" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F42" s="6">
         <v>0.64228001062999995</v>
       </c>

--- a/ensemble/ensemble.xlsx
+++ b/ensemble/ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_Design\CCF-BDCI-fewshot-classification\ensemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346CB5F-1C56-40F3-AC46-1AB8FE72B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA83855-D765-4336-9707-546A8B55D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,17 +672,20 @@
   <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="37.33203125" style="1" customWidth="1"/>
     <col min="3" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="24" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="6" customWidth="1"/>
+    <col min="7" max="22" width="20.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="1" customWidth="1"/>
     <col min="26" max="33" width="20.33203125" style="1" customWidth="1"/>
     <col min="34" max="36" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -703,7 +706,7 @@
       <c r="E1" s="2">
         <v>44869.402083333298</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -754,7 +757,7 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -822,7 +825,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -873,7 +876,7 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="6">
         <v>1</v>
       </c>
       <c r="X2" s="1">
@@ -941,7 +944,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -992,7 +995,7 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="6">
         <v>1</v>
       </c>
       <c r="X3" s="1">
@@ -1060,7 +1063,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -1111,7 +1114,7 @@
       <c r="V4" s="1">
         <v>0</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="6">
         <v>1</v>
       </c>
       <c r="X4" s="1">
@@ -1176,7 +1179,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -1227,7 +1230,7 @@
       <c r="V5" s="1">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="6">
         <v>0</v>
       </c>
       <c r="X5" s="1">
@@ -1295,7 +1298,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1346,7 +1349,7 @@
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="6">
         <v>1</v>
       </c>
       <c r="X6" s="1">
@@ -1412,7 +1415,7 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1463,7 +1466,7 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="6">
         <v>1</v>
       </c>
       <c r="X7" s="1">
@@ -1528,7 +1531,7 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1579,7 +1582,7 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="6">
         <v>0</v>
       </c>
       <c r="X8" s="1">
@@ -1644,7 +1647,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -1695,7 +1698,7 @@
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="6">
         <v>1</v>
       </c>
       <c r="X9" s="1">
@@ -1787,7 +1790,7 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="6">
         <v>0</v>
       </c>
       <c r="X10" s="1">
@@ -1879,7 +1882,7 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="6">
         <v>0</v>
       </c>
       <c r="X11" s="1">
@@ -1962,7 +1965,7 @@
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="6">
         <v>1</v>
       </c>
       <c r="X12" s="1">
@@ -2042,7 +2045,7 @@
       <c r="V13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="6">
         <v>0</v>
       </c>
       <c r="X13" s="1">
@@ -2122,7 +2125,7 @@
       <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="6">
         <v>1</v>
       </c>
       <c r="X14" s="1">
@@ -2632,7 +2635,7 @@
       <c r="E38" s="1">
         <v>0.62031840512000003</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6">
         <v>0.63589020368000004</v>
       </c>
       <c r="G38" s="1">
@@ -2683,7 +2686,7 @@
       <c r="V38" s="1">
         <v>0.63252946054000003</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="6">
         <v>0.63926327466999999</v>
       </c>
       <c r="X38" s="1">
@@ -2748,7 +2751,7 @@
       <c r="E39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2799,7 +2802,7 @@
       <c r="V39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="6" t="s">
         <v>70</v>
       </c>
       <c r="X39" s="1" t="s">
@@ -2864,7 +2867,7 @@
       <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2915,7 +2918,7 @@
       <c r="V40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="6" t="s">
         <v>73</v>
       </c>
       <c r="X40" s="1" t="s">
@@ -2968,7 +2971,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="6" t="s">
         <v>70</v>
       </c>
     </row>
